--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,34 +619,46 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-基底仕様のカテゴリ「exam」固定とする</t>
+【JP-Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="exam"/&gt;
-    &lt;display value="Exam"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -662,8 +674,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-所見の有無を表すコード（固定値）</t>
+【JP-Core仕様】所見の有無を表すコード（固定値）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -715,8 +726,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP-Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -749,7 +759,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -774,8 +784,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP仕様】&lt;br/&gt;
-診察</t>
+【JP-Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -812,8 +821,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP-Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -873,7 +881,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -903,8 +911,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-コードに限定する</t>
+【JP-Core仕様】コードに限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1073,9 +1080,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.
-【JP仕様】&lt;br/&gt;
-症状・所見マスターの「診察方法」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+【JP-Core仕様】症状・所見マスターの「診察方法」を基にバリューセットを定義する</t>
   </si>
   <si>
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
@@ -1357,12 +1362,11 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP仕様】&lt;br/&gt;
-関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP-Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1386,8 +1390,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP-Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1404,8 +1407,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-具体的な所見を記載する</t>
+【JP-Core仕様】具体的な所見を記載する</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1437,8 +1439,7 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-具体的な所見を表すコード（固定値）</t>
+【JP-Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1817,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3530,7 +3531,7 @@
         <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3561,7 +3562,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>81</v>
@@ -3582,25 +3583,23 @@
         <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>188</v>
@@ -3627,10 +3626,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3638,11 +3637,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3658,32 +3659,32 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>81</v>
@@ -3698,11 +3699,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3720,13 +3723,13 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
@@ -3735,31 +3738,31 @@
         <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3778,26 +3781,26 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>81</v>
@@ -3815,13 +3818,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3839,10 +3840,10 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3854,27 +3855,27 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3882,10 +3883,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
@@ -3897,18 +3898,20 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3956,13 +3959,13 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
@@ -3971,19 +3974,19 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3991,18 +3994,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
@@ -4014,20 +4017,18 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4075,13 +4076,13 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4090,19 +4091,19 @@
         <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4110,11 +4111,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4133,19 +4134,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4194,7 +4195,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4209,19 +4210,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4229,11 +4230,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4252,18 +4253,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4326,19 +4329,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4346,7 +4349,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4357,7 +4360,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4369,20 +4372,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4430,13 +4431,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4445,19 +4446,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4476,7 +4477,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4488,19 +4489,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4525,13 +4526,13 @@
         <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
@@ -4549,42 +4550,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4604,22 +4605,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4644,13 +4645,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4668,7 +4669,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4677,7 +4678,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4686,35 +4687,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4729,16 +4730,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4763,13 +4764,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4787,16 +4788,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4805,28 +4806,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4845,19 +4846,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4882,13 +4883,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4906,7 +4907,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4924,24 +4925,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4952,7 +4953,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4964,18 +4965,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4999,11 +5002,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5021,13 +5026,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5039,24 +5044,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5082,17 +5087,15 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5120,7 +5123,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5138,7 +5141,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5156,24 +5159,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5196,18 +5199,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5231,13 +5236,11 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5255,7 +5258,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5273,24 +5276,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5313,16 +5316,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5372,7 +5375,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5390,24 +5393,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5418,7 +5421,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5430,20 +5433,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5491,42 +5492,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5537,7 +5538,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5549,16 +5550,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5606,31 +5611,31 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5641,18 +5646,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5664,17 +5669,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5729,13 +5732,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5747,7 +5750,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5758,11 +5761,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5775,26 +5778,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5867,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5877,39 +5878,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5957,19 +5962,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5978,10 +5983,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5992,7 +5997,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6015,13 +6020,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6072,7 +6077,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6086,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6093,7 +6098,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>378</v>
@@ -6130,7 +6135,7 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>380</v>
@@ -6138,12 +6143,8 @@
       <c r="L37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6167,13 +6168,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6200,7 +6201,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6209,13 +6210,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6226,7 +6227,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,7 +6238,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6252,16 +6253,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6286,13 +6287,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6310,13 +6311,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6328,13 +6329,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6346,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,7 +6357,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6368,17 +6369,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>397</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6403,13 +6406,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6427,13 +6430,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6445,13 +6448,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6462,7 +6465,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6485,16 +6488,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6563,7 +6568,7 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>405</v>
@@ -6588,7 +6593,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6597,20 +6602,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6665,7 +6668,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6680,10 +6683,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6717,16 +6720,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6776,7 +6779,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6797,10 +6800,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6811,7 +6814,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6834,20 +6837,18 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6917,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6930,7 +6931,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6941,7 +6942,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6950,19 +6951,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7010,19 +7015,19 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7031,10 +7036,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7045,18 +7050,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7068,17 +7073,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7133,13 +7136,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7151,7 +7154,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7162,11 +7165,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7179,26 +7182,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7270,7 +7271,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7281,49 +7282,49 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>81</v>
@@ -7341,11 +7342,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7363,34 +7366,34 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7398,7 +7401,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7406,7 +7409,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7421,26 +7424,26 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>81</v>
@@ -7458,13 +7461,11 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7482,10 +7483,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7500,24 +7501,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7537,22 +7538,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7577,13 +7578,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7601,7 +7602,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7611,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7619,19 +7620,19 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50">
@@ -7640,14 +7641,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7662,16 +7663,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>289</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7696,13 +7697,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7726,10 +7727,10 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7738,19 +7739,19 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -7759,7 +7760,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7778,19 +7779,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7815,13 +7816,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7857,18 +7858,137 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>
